--- a/noise_attack_results/IMDB_RoBERTa_clean_accuracy_results.xlsx
+++ b/noise_attack_results/IMDB_RoBERTa_clean_accuracy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>noise_type\intensity</t>
   </si>
@@ -25,13 +25,13 @@
     <t>0.001</t>
   </si>
   <si>
-    <t>95.27%</t>
+    <t>93.23%</t>
   </si>
   <si>
     <t>0.0025</t>
   </si>
   <si>
-    <t>95.26%</t>
+    <t>93.24%</t>
   </si>
   <si>
     <t>0.005</t>
@@ -40,124 +40,103 @@
     <t>0.01</t>
   </si>
   <si>
-    <t>95.25%</t>
-  </si>
-  <si>
     <t>0.025</t>
   </si>
   <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>95.22%</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>95.21%</t>
+    <t>93.16%</t>
   </si>
   <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>94.93%</t>
+    <t>92.59%</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>69.08%</t>
+    <t>77.54%</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>50.40%</t>
+  </si>
+  <si>
+    <t>pre_att_cls</t>
+  </si>
+  <si>
+    <t>93.25%</t>
+  </si>
+  <si>
+    <t>93.15%</t>
+  </si>
+  <si>
+    <t>92.89%</t>
+  </si>
+  <si>
+    <t>90.30%</t>
+  </si>
+  <si>
+    <t>70.37%</t>
+  </si>
+  <si>
+    <t>pre_att_all</t>
+  </si>
+  <si>
+    <t>93.22%</t>
+  </si>
+  <si>
+    <t>93.20%</t>
+  </si>
+  <si>
+    <t>92.94%</t>
+  </si>
+  <si>
+    <t>86.52%</t>
+  </si>
+  <si>
     <t>51.86%</t>
   </si>
   <si>
-    <t>pre_att_cls</t>
-  </si>
-  <si>
-    <t>95.18%</t>
-  </si>
-  <si>
-    <t>95.16%</t>
-  </si>
-  <si>
-    <t>94.75%</t>
-  </si>
-  <si>
-    <t>90.94%</t>
-  </si>
-  <si>
-    <t>63.37%</t>
-  </si>
-  <si>
-    <t>pre_att_all</t>
-  </si>
-  <si>
-    <t>95.24%</t>
-  </si>
-  <si>
-    <t>95.20%</t>
-  </si>
-  <si>
-    <t>95.19%</t>
-  </si>
-  <si>
-    <t>95.01%</t>
-  </si>
-  <si>
-    <t>80.10%</t>
-  </si>
-  <si>
-    <t>50.75%</t>
-  </si>
-  <si>
-    <t>49.82%</t>
+    <t>50.19%</t>
   </si>
   <si>
     <t>post_att_cls</t>
   </si>
   <si>
-    <t>95.28%</t>
-  </si>
-  <si>
-    <t>95.10%</t>
-  </si>
-  <si>
-    <t>94.70%</t>
-  </si>
-  <si>
-    <t>84.75%</t>
+    <t>93.01%</t>
+  </si>
+  <si>
+    <t>92.73%</t>
   </si>
   <si>
     <t>post_att_all</t>
   </si>
   <si>
-    <t>93.48%</t>
-  </si>
-  <si>
-    <t>55.83%</t>
-  </si>
-  <si>
-    <t>50.27%</t>
+    <t>93.11%</t>
+  </si>
+  <si>
+    <t>92.38%</t>
+  </si>
+  <si>
+    <t>61.04%</t>
+  </si>
+  <si>
+    <t>50.10%</t>
   </si>
   <si>
     <t>last_cls</t>
   </si>
   <si>
     <t>logits</t>
-  </si>
-  <si>
-    <t>95.23%</t>
-  </si>
-  <si>
-    <t>95.09%</t>
-  </si>
-  <si>
-    <t>94.83%</t>
   </si>
 </sst>
 </file>
@@ -519,22 +498,22 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -548,103 +527,103 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -653,68 +632,68 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -749,7 +728,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -764,22 +743,22 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
